--- a/4-waardelijsten/IMKL-Waardelijsten-3.0rc.xlsx
+++ b/4-waardelijsten/IMKL-Waardelijsten-3.0rc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.janssen.GNM\Documents\Github\imkl-werkomgeving\4-waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC23A0-3198-464B-B605-31BB94587529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E66AE6-80C7-400F-B493-32D5EC6E2CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3375" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1091">
   <si>
     <t>Naam</t>
   </si>
@@ -3130,9 +3130,6 @@
   </si>
   <si>
     <t>fictief ingetekend</t>
-  </si>
-  <si>
-    <t>NOG DOEN</t>
   </si>
   <si>
     <t>De locatie van het element is fictief ingetekend.</t>
@@ -3547,7 +3544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3682,9 +3679,6 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3700,6 +3694,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Accent2" xfId="5" builtinId="33"/>
@@ -4708,7 +4705,7 @@
       <c r="B8" t="s">
         <v>985</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>984</v>
       </c>
     </row>
@@ -4757,10 +4754,10 @@
     </row>
     <row r="14" spans="1:3" s="32" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4962,15 +4959,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
         <v>843</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>843</v>
       </c>
-      <c r="C37" s="40" t="s">
-        <v>1090</v>
+      <c r="C37" s="39" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5068,10 +5065,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J469"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
+      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6183,147 +6180,147 @@
     </row>
     <row r="63" spans="1:10" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E63" s="36" t="s">
         <v>1049</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>1068</v>
+      <c r="H63" s="37" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="37" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H64" s="36"/>
+      <c r="D64" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="37" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H65" s="36" t="s">
-        <v>1069</v>
+      <c r="D65" s="36" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="37" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H66" s="36"/>
+      <c r="D66" s="36" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H66" s="35"/>
     </row>
     <row r="67" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="37" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H67" s="36" t="s">
-        <v>1070</v>
+      <c r="D67" s="36" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="37" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H68" s="36"/>
+      <c r="D68" s="36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B69" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>1071</v>
+      <c r="D69" s="35" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H70" s="36"/>
+      <c r="D70" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B71" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="37" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H71" s="36" t="s">
-        <v>1072</v>
+      <c r="D71" s="36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -6615,14 +6612,10 @@
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
       <c r="H88" s="32" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I88" s="33" t="s">
         <v>1018</v>
       </c>
-      <c r="J88" s="33" t="s">
-        <v>1018</v>
-      </c>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
@@ -9748,14 +9741,14 @@
       <c r="B275" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D275" s="35" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E275" s="35" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H275" s="36" t="s">
-        <v>1020</v>
+      <c r="D275" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E275" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H275" s="35" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="276" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -9765,14 +9758,14 @@
       <c r="B276" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D276" s="35" t="s">
+      <c r="D276" s="34" t="s">
         <v>767</v>
       </c>
-      <c r="E276" s="35" t="s">
+      <c r="E276" s="34" t="s">
         <v>767</v>
       </c>
-      <c r="H276" s="36" t="s">
-        <v>1077</v>
+      <c r="H276" s="35" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="277" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -9782,14 +9775,14 @@
       <c r="B277" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D277" s="35" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E277" s="35" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H277" s="36" t="s">
-        <v>1078</v>
+      <c r="D277" s="34" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E277" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H277" s="35" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="278" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -9799,14 +9792,14 @@
       <c r="B278" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="35" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E278" s="35" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H278" s="36" t="s">
-        <v>1079</v>
+      <c r="D278" s="34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E278" s="34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H278" s="35" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="279" spans="1:8" s="32" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
@@ -9816,14 +9809,14 @@
       <c r="B279" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D279" s="35" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E279" s="35" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H279" s="36" t="s">
-        <v>1080</v>
+      <c r="D279" s="34" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E279" s="34" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H279" s="35" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="280" spans="1:8" s="32" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.3">
@@ -9833,14 +9826,14 @@
       <c r="B280" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D280" s="35" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E280" s="35" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H280" s="36" t="s">
-        <v>1021</v>
+      <c r="D280" s="34" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E280" s="34" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H280" s="35" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="281" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -9850,14 +9843,14 @@
       <c r="B281" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D281" s="35" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E281" s="35" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H281" s="36" t="s">
-        <v>1022</v>
+      <c r="D281" s="34" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E281" s="34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H281" s="35" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="282" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -9867,14 +9860,14 @@
       <c r="B282" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D282" s="35" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E282" s="35" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H282" s="36" t="s">
-        <v>1081</v>
+      <c r="D282" s="34" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E282" s="34" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H282" s="35" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="283" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -9884,14 +9877,14 @@
       <c r="B283" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D283" s="35" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E283" s="35" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H283" s="36" t="s">
-        <v>1082</v>
+      <c r="D283" s="34" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E283" s="34" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H283" s="35" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="284" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -9901,14 +9894,14 @@
       <c r="B284" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D284" s="35" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E284" s="35" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H284" s="36" t="s">
-        <v>1083</v>
+      <c r="D284" s="34" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E284" s="34" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H284" s="35" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="285" spans="1:8" s="32" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.3">
@@ -9918,14 +9911,14 @@
       <c r="B285" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D285" s="35" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E285" s="35" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H285" s="36" t="s">
-        <v>1084</v>
+      <c r="D285" s="34" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E285" s="34" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H285" s="35" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="286" spans="1:8" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -9935,14 +9928,14 @@
       <c r="B286" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D286" s="35" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E286" s="35" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H286" s="36" t="s">
-        <v>1023</v>
+      <c r="D286" s="34" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E286" s="34" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H286" s="35" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="287" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -9952,14 +9945,14 @@
       <c r="B287" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D287" s="35" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E287" s="35" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H287" s="36" t="s">
-        <v>1085</v>
+      <c r="D287" s="34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E287" s="34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H287" s="35" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="288" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -9969,14 +9962,14 @@
       <c r="B288" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D288" s="35" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E288" s="35" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H288" s="36" t="s">
-        <v>1086</v>
+      <c r="D288" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E288" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H288" s="35" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -9986,14 +9979,14 @@
       <c r="B289" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D289" s="35" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E289" s="35" t="s">
-        <v>1038</v>
-      </c>
-      <c r="H289" s="36" t="s">
-        <v>1087</v>
+      <c r="D289" s="34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E289" s="34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H289" s="35" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10003,14 +9996,14 @@
       <c r="B290" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D290" s="35" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E290" s="35" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H290" s="36" t="s">
-        <v>1024</v>
+      <c r="D290" s="34" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E290" s="34" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H290" s="35" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="291" spans="1:10" s="32" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
@@ -10020,14 +10013,14 @@
       <c r="B291" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D291" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E291" s="35" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H291" s="36" t="s">
-        <v>1088</v>
+      <c r="D291" s="34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E291" s="34" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H291" s="35" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -13386,7 +13379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14259,7 +14252,7 @@
         <v>20240821</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>1015</v>
@@ -14270,18 +14263,18 @@
         <v>20240906</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -14292,7 +14285,7 @@
         <v>78</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
